--- a/similarities/split_global/harmonic_similarity_timestamps_76.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_76.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,431 +484,459 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:00:39.800000', '0:00:45.400000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:31.600000', '0:00:33.800000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=39.8</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=31.6</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_197</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>['A', 'B', 'E']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'D:maj', 'G:maj']]</t>
+          <t>['A', 'B', 'E']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:16.088141', '0:00:27.709728')]</t>
+          <t>('0:00:12.971000', '0:00:23.861000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:12.446000', '0:00:16.277000')]</t>
+          <t>('0:00:50.046698', '0:00:55.352457')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-197#t=16.088141']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=12.971</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=50.046698</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:08.840000', '0:00:16.860000')]</t>
+          <t>('0:00:43.540000', '0:01:00')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:37.992880', '0:00:42.009932')]</t>
+          <t>('0:04:11.500000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=8.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=43.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=37.99288']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['A:7', 'D:maj', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G', 'C:min'], ['A#:7', 'D#', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:27.360000', '0:00:34.920000'), ('0:00:13.980000', '0:00:21.500000'), ('0:00:39.300000', '0:00:45.380000'), ('0:00:37.540000', '0:00:42.720000')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:23.980000', '0:00:29.420000'), ('0:00:09.720000', '0:00:13'), ('0:00:14.080000', '0:00:20.540000'), ('0:00:35.440000', '0:00:37.740000'), ('0:00:39.900000', '0:00:41.520000')]</t>
+          <t>('0:01:23.200000', '0:01:31.140000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=27.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=39.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=23.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=9.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=35.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=39.9']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>isophonics_19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['D:min', 'G:min', 'C', 'F']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:min', 'C:min', 'F:maj', 'Bb:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:16.300000'), ('0:00:00.660000', '0:00:02.680000')]</t>
+          <t>('0:00:43.140997', '0:00:48.945986')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:04.840000', '0:00:10.640000'), ('0:00:12.060000', '0:00:17.060000')]</t>
+          <t>('0:00:59.327000', '0:01:12.921000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=43.140997</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=59.327</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C', 'D:min7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:09.380000', '0:02:15.340000')]</t>
+          <t>('0:01:02.270000', '0:01:09.760000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:08.413696', '0:00:13.057687')]</t>
+          <t>('0:01:05.420000', '0:01:11.700000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=62.27</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=65.42</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+          <t>('0:04:11.500000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+          <t>('0:00:00.590000', '0:00:16.750000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=17.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=72.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=0.59</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:25.949000')]</t>
+          <t>('0:00:00.380000', '0:00:08.900000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:01:10.980000', '0:01:27.200000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:16.320000'), ('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:42.080000', '0:00:57.880000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:29.080000', '0:01:38.100000'), ('0:00:59.220000', '0:01:06.880000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -918,32 +946,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:01:58.400000', '0:02:01.720000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -952,187 +980,201 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:7/C', 'A#']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj'], ['B:min', 'E:7/G#', 'A:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000'), ('0:00:43.120000', '0:00:46.120000')]</t>
+          <t>('0:02:03.220000', '0:02:06.880000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:09.540000'), ('0:00:36.300000', '0:00:43.280000')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=43.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=36.3']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
+          <t>('0:00:02.408196', '0:00:13.878853')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_125</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:7/C', 'C', 'C/G']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:7/3', 'G/3', 'G']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:04:10.060000', '0:04:14.380000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:07.905000', '0:01:12.107811')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=250.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-125#t=67.905']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:14.530000', '0:00:17.430000')]</t>
+          <t>('0:00:07.400000', '0:00:12.020000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:12.300000')]</t>
+          <t>('0:01:21.280000', '0:01:29.420000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=14.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=9.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1142,36 +1184,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:00:34.866000', '0:00:59.164000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:02:37.160000', '0:02:40.380000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=157.16</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
